--- a/quizzes/15. Văn thư, lễ tân.xlsx
+++ b/quizzes/15. Văn thư, lễ tân.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uybinh/Downloads/CHINHANH-DOT2/TAILIEUONTAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uybinh/Projects/quiz-nghiep-vu/quizzes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921C072-94CA-E349-AC0C-3E35E5674DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D557866-37D6-0440-B25E-D74A1F767222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="32000" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>ĐÁP ÁN ĐÚNG</t>
-  </si>
-  <si>
-    <t>TRÍCH DẪN 
-NGUỒN CÂU HỎI</t>
   </si>
   <si>
     <t>Theo Văn bản 2668/QĐ-NHNo-TCKT, nhận định sau đây là đúng hay sai? "Khi mua hàng hóa, dịch vụ có giá trị từ 190.000đ trở lên mỗi lần phải có hóa đơn theo quy định của Bộ Tài chính"?</t>
@@ -3226,6 +3222,9 @@
   </si>
   <si>
     <t>ThL.</t>
+  </si>
+  <si>
+    <t>TRÍCH DẪN NGUỒN</t>
   </si>
 </sst>
 </file>
@@ -3675,7 +3674,7 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3710,7 +3709,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -3718,13 +3717,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3732,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -3740,25 +3739,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -3766,25 +3765,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -3792,13 +3791,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3806,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -3814,25 +3813,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -3840,13 +3839,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3854,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3862,25 +3861,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="4">
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -3888,25 +3887,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3914,25 +3913,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -3940,25 +3939,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -3966,25 +3965,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -3992,25 +3991,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -4018,25 +4017,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4044,25 +4043,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="4">
         <v>3</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4070,25 +4069,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -4096,25 +4095,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -4122,25 +4121,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G18" s="4">
         <v>4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -4148,13 +4147,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -4162,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4170,25 +4169,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4">
         <v>4</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4196,13 +4195,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -4210,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -4218,13 +4217,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4232,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -4240,13 +4239,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4254,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4262,13 +4261,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4276,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -4284,13 +4283,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -4298,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4306,25 +4305,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4332,25 +4331,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4358,25 +4357,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -4384,13 +4383,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -4398,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4406,25 +4405,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -4432,13 +4431,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -4446,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4454,25 +4453,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4480,23 +4479,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4504,23 +4503,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4">
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -4528,25 +4527,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="204" x14ac:dyDescent="0.2">
@@ -4554,25 +4553,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4580,25 +4579,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4606,25 +4605,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" s="4">
         <v>4</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4632,13 +4631,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -4646,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -4654,13 +4653,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -4668,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4676,25 +4675,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="G41" s="4">
         <v>2</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -4702,25 +4701,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="G42" s="4">
         <v>4</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4728,25 +4727,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G43" s="4">
         <v>2</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -4754,25 +4753,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4780,25 +4779,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4806,25 +4805,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="G46" s="4">
         <v>1</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4832,25 +4831,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4858,25 +4857,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G48" s="4">
         <v>4</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -4884,25 +4883,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="F49" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49" s="4">
         <v>4</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -4910,25 +4909,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="G50" s="4">
         <v>4</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4936,25 +4935,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" s="4">
         <v>4</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4962,25 +4961,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" s="4">
         <v>4</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4988,25 +4987,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4">
         <v>4</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5014,25 +5013,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" s="4">
         <v>4</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5040,25 +5039,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="G55" s="4">
         <v>4</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5066,25 +5065,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G56" s="4">
         <v>4</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5092,25 +5091,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -5118,13 +5117,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -5132,7 +5131,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5140,25 +5139,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G59" s="4">
         <v>4</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5166,25 +5165,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" s="4">
         <v>4</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -5192,25 +5191,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -5218,13 +5217,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -5232,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -5240,13 +5239,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -5254,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -5262,25 +5261,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" s="4">
         <v>4</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -5288,13 +5287,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -5302,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5310,25 +5309,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="G66" s="4">
         <v>2</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -5336,13 +5335,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -5350,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5358,25 +5357,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68" s="4">
         <v>4</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5384,25 +5383,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="G69" s="4">
         <v>4</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5410,25 +5409,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G70" s="4">
         <v>4</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5436,23 +5435,23 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="E71" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <v>3</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -5460,25 +5459,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="F72" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72" s="4">
         <v>4</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5486,25 +5485,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="G73" s="4">
         <v>1</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -5512,25 +5511,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G74" s="4">
         <v>4</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5538,25 +5537,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="G75" s="4">
         <v>1</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5564,25 +5563,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="G76" s="4">
         <v>4</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5590,25 +5589,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="G77" s="4">
         <v>1</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5616,25 +5615,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="G78" s="4">
         <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5642,25 +5641,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="F79" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79" s="4">
         <v>4</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -5668,13 +5667,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5682,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -5690,25 +5689,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="F81" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G81" s="4">
         <v>4</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -5716,25 +5715,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="G82" s="4">
         <v>1</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5742,23 +5741,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <v>2</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5766,25 +5765,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="G84" s="4">
         <v>4</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5792,7 +5791,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -5810,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5818,25 +5817,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="G86" s="4">
         <v>3</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -5844,25 +5843,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="G87" s="4">
         <v>1</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5870,25 +5869,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="G88" s="4">
         <v>1</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5896,25 +5895,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="F89" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" s="4">
         <v>4</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -5922,25 +5921,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="G90" s="4">
         <v>1</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5948,23 +5947,23 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="D91" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>1012</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>1013</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="4">
         <v>1</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5972,25 +5971,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="F92" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G92" s="4">
         <v>4</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -5998,13 +5997,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="D93" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="E93" s="4">
         <v>14</v>
@@ -6016,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6024,25 +6023,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="G94" s="4">
         <v>1</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6050,23 +6049,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <v>1</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6074,23 +6073,23 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <v>1</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6098,23 +6097,23 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <v>1</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6122,23 +6121,23 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <v>1</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6146,23 +6145,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <v>1</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6170,23 +6169,23 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <v>1</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6194,23 +6193,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <v>1</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6218,23 +6217,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <v>1</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6242,23 +6241,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <v>1</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -6266,23 +6265,23 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <v>1</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6290,25 +6289,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="G105" s="4">
         <v>4</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -6316,16 +6315,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="D106" s="4">
         <v>13</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F106" s="4">
         <v>14</v>
@@ -6334,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -6342,7 +6341,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C107" s="6">
         <v>13.5</v>
@@ -6351,7 +6350,7 @@
         <v>13</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F107" s="4">
         <v>14</v>
@@ -6360,7 +6359,7 @@
         <v>3</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6368,25 +6367,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="F108" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G108" s="4">
         <v>4</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6394,23 +6393,23 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <v>1</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6418,25 +6417,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="G110" s="4">
         <v>4</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6444,25 +6443,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="F111" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G111" s="4">
         <v>4</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6470,25 +6469,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="F112" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G112" s="4">
         <v>4</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6496,25 +6495,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="D113" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="E113" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" s="4">
         <v>4</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6522,23 +6521,23 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <v>3</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -6546,23 +6545,23 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="E115" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <v>1</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6570,13 +6569,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -6584,7 +6583,7 @@
         <v>2</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -6592,25 +6591,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>476</v>
-      </c>
       <c r="F117" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117" s="4">
         <v>1</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6618,23 +6617,23 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <v>3</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6642,13 +6641,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -6656,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6664,25 +6663,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="G120" s="4">
         <v>1</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6690,23 +6689,23 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <v>3</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6714,25 +6713,25 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="D122" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="F122" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="G122" s="4">
         <v>3</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6740,13 +6739,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="D123" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -6754,7 +6753,7 @@
         <v>2</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6762,25 +6761,25 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="G124" s="4">
         <v>4</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6788,23 +6787,23 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <v>1</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6812,23 +6811,23 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="D126" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="E126" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <v>2</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6836,25 +6835,25 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="D127" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="E127" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="F127" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="G127" s="4">
         <v>1</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6862,23 +6861,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <v>3</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -6886,13 +6885,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -6900,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -6908,23 +6907,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="D130" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="E130" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <v>3</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -6932,23 +6931,23 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <v>1</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -6956,23 +6955,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>546</v>
-      </c>
       <c r="E132" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4">
         <v>3</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -6980,23 +6979,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="E133" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4">
         <v>3</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="204" x14ac:dyDescent="0.2">
@@ -7004,25 +7003,25 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="D134" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="F134" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="G134" s="4">
         <v>4</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -7030,13 +7029,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -7044,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7052,23 +7051,23 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="D136" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="4">
         <v>3</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7076,23 +7075,23 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="D137" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4">
         <v>1</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7100,25 +7099,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="D138" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="F138" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="G138" s="4">
         <v>2</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7126,13 +7125,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -7140,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7148,13 +7147,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -7162,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7170,25 +7169,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="E141" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>583</v>
-      </c>
       <c r="F141" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" s="4">
         <v>4</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7196,13 +7195,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>585</v>
-      </c>
       <c r="D142" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -7210,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7218,13 +7217,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -7232,7 +7231,7 @@
         <v>2</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7240,23 +7239,23 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>593</v>
-      </c>
       <c r="E144" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4">
         <v>3</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -7264,25 +7263,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="D145" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="E145" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="F145" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="G145" s="4">
         <v>4</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7290,23 +7289,23 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="D146" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="E146" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4">
         <v>1</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7314,23 +7313,23 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="D147" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>607</v>
-      </c>
       <c r="E147" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4">
         <v>3</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -7338,23 +7337,23 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="D148" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>612</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4">
         <v>3</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -7362,25 +7361,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="F149" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" s="4">
         <v>4</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7388,23 +7387,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4">
         <v>2</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7412,25 +7411,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="E151" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="F151" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="G151" s="4">
         <v>4</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7438,25 +7437,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="E152" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="F152" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="G152" s="4">
         <v>2</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7464,23 +7463,23 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="D153" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="E153" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4">
         <v>1</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7488,25 +7487,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="F154" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" s="4">
         <v>4</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7514,23 +7513,23 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="E155" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4">
         <v>1</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -7538,23 +7537,23 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="D156" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="E156" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4">
         <v>3</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -7562,23 +7561,23 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="D157" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="E157" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="2">
         <v>3</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7586,25 +7585,25 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="D158" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="E158" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="E158" s="6" t="s">
-        <v>659</v>
-      </c>
       <c r="F158" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" s="2">
         <v>4</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7612,23 +7611,23 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>664</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2">
         <v>1</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7636,13 +7635,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="D160" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="2"/>
@@ -7650,7 +7649,7 @@
         <v>2</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7658,25 +7657,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>673</v>
-      </c>
       <c r="F161" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161" s="2">
         <v>4</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7684,23 +7683,23 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="D162" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="2">
         <v>2</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7708,23 +7707,23 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="D163" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="E163" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>682</v>
       </c>
       <c r="F163" s="11"/>
       <c r="G163" s="2">
         <v>3</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7732,25 +7731,25 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="D164" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="E164" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>687</v>
-      </c>
       <c r="F164" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164" s="4">
         <v>4</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -7758,23 +7757,23 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="E165" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="2">
         <v>1</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -7782,13 +7781,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="D166" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>695</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="2"/>
@@ -7796,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -7804,13 +7803,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="D167" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="2"/>
@@ -7818,7 +7817,7 @@
         <v>2</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7826,13 +7825,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="D168" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>702</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -7840,7 +7839,7 @@
         <v>2</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7848,13 +7847,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="D169" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>706</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="2"/>
@@ -7862,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7870,25 +7869,25 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="D170" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="E170" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>711</v>
-      </c>
       <c r="F170" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" s="2">
         <v>4</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7896,23 +7895,23 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="D171" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="E171" s="4" t="s">
         <v>715</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="2">
         <v>3</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -7920,13 +7919,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -7934,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7942,25 +7941,25 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="D173" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="E173" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>722</v>
-      </c>
       <c r="F173" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173" s="2">
         <v>4</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -7968,13 +7967,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="2"/>
@@ -7982,7 +7981,7 @@
         <v>2</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -7990,25 +7989,25 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="D175" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="E175" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>729</v>
-      </c>
       <c r="F175" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" s="2">
         <v>4</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8016,23 +8015,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="D176" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="E176" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="2">
         <v>3</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8040,25 +8039,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="D177" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="E177" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="F177" s="4" t="s">
         <v>739</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>740</v>
       </c>
       <c r="G177" s="4">
         <v>1</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8066,25 +8065,25 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="D178" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="E178" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>745</v>
-      </c>
       <c r="F178" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178" s="4">
         <v>4</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8092,25 +8091,25 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="D179" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="E179" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="F179" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>751</v>
       </c>
       <c r="G179" s="4">
         <v>2</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8118,25 +8117,25 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="D180" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="E180" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="F180" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="G180" s="4">
         <v>3</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8144,25 +8143,25 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="D181" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="E181" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="F181" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>762</v>
       </c>
       <c r="G181" s="4">
         <v>4</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8170,25 +8169,25 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="D182" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>766</v>
-      </c>
       <c r="F182" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" s="4">
         <v>4</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -8196,25 +8195,25 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="D183" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="E183" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>771</v>
-      </c>
       <c r="F183" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G183" s="4">
         <v>4</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8222,25 +8221,25 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="D184" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="E184" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="F184" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" s="4">
         <v>4</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -8248,25 +8247,25 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="D185" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>779</v>
-      </c>
       <c r="F185" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G185" s="4">
         <v>4</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -8274,25 +8273,25 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>781</v>
-      </c>
       <c r="D186" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E186" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="G186" s="4">
         <v>1</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -8300,23 +8299,23 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="D187" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="E187" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4">
         <v>2</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -8324,23 +8323,23 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="D188" s="4" t="s">
+      <c r="E188" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>789</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="4">
         <v>1</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="221" x14ac:dyDescent="0.2">
@@ -8348,23 +8347,23 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>791</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4">
         <v>3</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -8372,23 +8371,23 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="D190" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>795</v>
-      </c>
       <c r="E190" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4">
         <v>1</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -8396,23 +8395,23 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4">
         <v>3</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="238" x14ac:dyDescent="0.2">
@@ -8420,23 +8419,23 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C192" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>785</v>
-      </c>
       <c r="E192" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="4">
         <v>2</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="187" x14ac:dyDescent="0.2">
@@ -8444,23 +8443,23 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>801</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="4">
         <v>2</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8468,23 +8467,23 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="D194" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="4">
         <v>3</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8492,23 +8491,23 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="D195" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="E195" s="4" t="s">
         <v>810</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>811</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4">
         <v>1</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8516,23 +8515,23 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="D196" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="E196" s="4" t="s">
         <v>815</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>816</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="4">
         <v>1</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8540,23 +8539,23 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="D197" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="E197" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="4">
         <v>3</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8564,23 +8563,23 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="D198" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="E198" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>826</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="4">
         <v>3</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8588,23 +8587,23 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="D199" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="E199" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="4">
         <v>3</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8612,23 +8611,23 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="D200" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="E200" s="4" t="s">
         <v>833</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>834</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4">
         <v>3</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8636,23 +8635,23 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="D201" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="E201" s="4" t="s">
         <v>838</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>839</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4">
         <v>2</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8660,25 +8659,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="D202" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E202" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>843</v>
-      </c>
       <c r="F202" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G202" s="4">
         <v>4</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -8686,25 +8685,25 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="D203" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="E203" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="E203" s="4" t="s">
-        <v>848</v>
-      </c>
       <c r="F203" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" s="2">
         <v>4</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8712,25 +8711,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="D204" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E204" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="E204" s="4" t="s">
+      <c r="F204" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>853</v>
       </c>
       <c r="G204" s="2">
         <v>1</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8738,25 +8737,25 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="G205" s="2">
         <v>4</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8764,25 +8763,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="D206" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="D206" s="4" t="s">
+      <c r="E206" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="E206" s="4" t="s">
+      <c r="F206" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>863</v>
       </c>
       <c r="G206" s="4">
         <v>1</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -8790,25 +8789,25 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="D207" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="E207" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="F207" s="4" t="s">
         <v>867</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>868</v>
       </c>
       <c r="G207" s="4">
         <v>3</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8816,25 +8815,25 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="D208" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="E208" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="F208" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>874</v>
       </c>
       <c r="G208" s="4">
         <v>2</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8842,25 +8841,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="D209" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="E209" s="4" t="s">
-        <v>879</v>
-      </c>
       <c r="F209" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G209" s="4">
         <v>4</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -8868,25 +8867,25 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="D210" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="E210" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>883</v>
-      </c>
       <c r="F210" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G210" s="4">
         <v>2</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -8894,25 +8893,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="D211" s="4" t="s">
+      <c r="E211" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="F211" s="4" t="s">
         <v>887</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>888</v>
       </c>
       <c r="G211" s="4">
         <v>2</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8920,23 +8919,23 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="D212" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="E212" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="4">
         <v>1</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -8944,23 +8943,23 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="D213" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="E213" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4">
         <v>2</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -8968,23 +8967,23 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="D214" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>901</v>
-      </c>
       <c r="E214" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4">
         <v>3</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -8992,25 +8991,25 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="D215" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="E215" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="E215" s="4" t="s">
-        <v>906</v>
-      </c>
       <c r="F215" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G215" s="4">
         <v>4</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -9018,13 +9017,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -9032,7 +9031,7 @@
         <v>2</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -9040,13 +9039,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="D217" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>912</v>
       </c>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -9054,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -9062,23 +9061,23 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C218" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>914</v>
-      </c>
       <c r="E218" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="4">
         <v>3</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -9086,25 +9085,25 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="D219" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="E219" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>919</v>
-      </c>
       <c r="F219" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G219" s="4">
         <v>4</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -9112,25 +9111,25 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="C220" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="D220" s="4" t="s">
+      <c r="E220" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="E220" s="4" t="s">
+      <c r="F220" s="4" t="s">
         <v>923</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>924</v>
       </c>
       <c r="G220" s="4">
         <v>3</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -9138,25 +9137,25 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="D221" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="E221" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>929</v>
-      </c>
       <c r="F221" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G221" s="4">
         <v>4</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -9164,25 +9163,25 @@
         <v>221</v>
       </c>
       <c r="B222" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="D222" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="E222" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="E222" s="4" t="s">
-        <v>934</v>
-      </c>
       <c r="F222" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" s="4">
         <v>4</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -9190,25 +9189,25 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="D223" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="D223" s="6" t="s">
-        <v>938</v>
-      </c>
       <c r="E223" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F223" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="G223" s="4">
         <v>3</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -9216,13 +9215,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C224" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -9230,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -9238,23 +9237,23 @@
         <v>224</v>
       </c>
       <c r="B225" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="D225" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="D225" s="4" t="s">
+      <c r="E225" s="4" t="s">
         <v>944</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>945</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="4">
         <v>3</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -9262,23 +9261,23 @@
         <v>225</v>
       </c>
       <c r="B226" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="D226" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="D226" s="4" t="s">
+      <c r="E226" s="4" t="s">
         <v>949</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>950</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="4">
         <v>2</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -9286,13 +9285,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>953</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -9300,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -9308,25 +9307,25 @@
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="D228" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="D228" s="4" t="s">
+      <c r="E228" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="E228" s="4" t="s">
-        <v>958</v>
-      </c>
       <c r="F228" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G228" s="4">
         <v>4</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -9334,23 +9333,23 @@
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D229" s="4" t="s">
+      <c r="E229" s="4" t="s">
         <v>961</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>962</v>
       </c>
       <c r="F229" s="4"/>
       <c r="G229" s="4">
         <v>2</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -9358,23 +9357,23 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="D230" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>966</v>
-      </c>
       <c r="E230" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F230" s="4"/>
       <c r="G230" s="4">
         <v>3</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -9382,13 +9381,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -9396,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -9404,23 +9403,23 @@
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="D232" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="E232" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>973</v>
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="4">
         <v>1</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -9428,23 +9427,23 @@
         <v>232</v>
       </c>
       <c r="B233" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="D233" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>977</v>
-      </c>
       <c r="E233" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="4">
         <v>2</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -9452,25 +9451,25 @@
         <v>233</v>
       </c>
       <c r="B234" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="D234" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="E234" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="E234" s="4" t="s">
+      <c r="F234" s="4" t="s">
         <v>982</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>983</v>
       </c>
       <c r="G234" s="4">
         <v>2</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -9478,25 +9477,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="D235" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="D235" s="4" t="s">
+      <c r="E235" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="E235" s="4" t="s">
+      <c r="F235" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>989</v>
       </c>
       <c r="G235" s="4">
         <v>1</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -9504,25 +9503,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="D236" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="D236" s="4" t="s">
+      <c r="E236" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="F236" s="4" t="s">
         <v>994</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>995</v>
       </c>
       <c r="G236" s="4">
         <v>4</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -9530,13 +9529,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C237" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -9544,7 +9543,7 @@
         <v>2</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -9552,23 +9551,23 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="C238" s="4" t="s">
-        <v>1000</v>
-      </c>
       <c r="D238" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E238" s="4" t="s">
         <v>1028</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>1029</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="4">
         <v>1</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -9576,13 +9575,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -9590,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -9598,25 +9597,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="D240" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="D240" s="4" t="s">
+      <c r="E240" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="E240" s="4" t="s">
+      <c r="F240" s="4" t="s">
         <v>1006</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>1007</v>
       </c>
       <c r="G240" s="4">
         <v>1</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -9624,23 +9623,23 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D241" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E241" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>1031</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="4">
         <v>1</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
